--- a/sujet_tp/sujet_tp/src/output/save_clustering__hist_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__hist_rbm_kmeans.xlsx
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1137,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sujet_tp/sujet_tp/src/output/save_clustering__hist_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__hist_rbm_kmeans.xlsx
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1137,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1157,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1177,7 +1177,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1197,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1277,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1297,7 +1297,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
